--- a/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6269921-06:00</t>
+    <t>2026-02-09T22:05:42.9918487-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9918487-06:00</t>
+    <t>2026-02-17T14:42:26.7394604-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7394604-06:00</t>
+    <t>2026-02-20T11:59:20.7367071-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>BiologicallyDerivedProductDispense</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense}
 </t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
+++ b/StructureDefinition-profile-BiologicallyDerivedProductDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7367071-06:00</t>
+    <t>2026-02-21T13:36:54.1360601-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>BiologicallyDerivedProductDispense</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
